--- a/AMZN_Model.xlsx
+++ b/AMZN_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580A827-DA0D-4E54-AEF0-4CE29973E7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699AD4E-DAE6-4579-A647-D37395FB0CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5633,9 +5633,6 @@
     <t>Amazon.com, Inc. (AMZN)</t>
   </si>
   <si>
-    <t>Q2'25</t>
-  </si>
-  <si>
     <t>Current CEO: Andrew Jassy</t>
   </si>
   <si>
@@ -5974,17 +5971,21 @@
   </si>
   <si>
     <t>Employees: 1,532,000</t>
+  </si>
+  <si>
+    <t>Q3'25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -6373,9 +6374,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6509,18 +6510,24 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -14029,14 +14036,14 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -14051,63 +14058,63 @@
         <v>0</v>
       </c>
       <c r="C3" s="80">
-        <v>244.3</v>
+        <v>229.71</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="79">
-        <v>10674</v>
+      <c r="C4" s="81">
+        <v>10690</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1832</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="82">
         <f>C3*C4</f>
-        <v>2607658.2000000002</v>
+        <v>2455599.9</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="83">
         <f>66922+27275</f>
         <v>94197</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1832</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="83">
         <f>50742</f>
         <v>50742</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1832</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="83">
         <f>C5-C6+C7</f>
-        <v>2564203.2000000002</v>
+        <v>2412144.9</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -14123,49 +14130,49 @@
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>1838</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1839</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="R14" s="43" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>164</v>
@@ -14174,18 +14181,18 @@
         <v>161</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>159</v>
@@ -14194,34 +14201,34 @@
         <v>162</v>
       </c>
       <c r="Q16" s="43" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="B17" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="B18" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="Q18" s="43" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>8</v>
@@ -14238,47 +14245,47 @@
     <row r="22" spans="1:17" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15">
@@ -14308,10 +14315,10 @@
   <dimension ref="B1:EZ107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BX4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="CI48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CY77" sqref="CY77"/>
+      <selection pane="bottomRight" activeCell="CY78" sqref="CY78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -14882,7 +14889,7 @@
     </row>
     <row r="4" spans="2:156">
       <c r="B4" s="36" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="BC4" s="1">
         <v>51129</v>
@@ -14987,7 +14994,7 @@
     </row>
     <row r="5" spans="2:156">
       <c r="B5" s="36" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="BC5" s="1">
         <v>4591</v>
@@ -15092,7 +15099,7 @@
     </row>
     <row r="6" spans="2:156">
       <c r="B6" s="36" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="BC6" s="1">
         <v>25335</v>
@@ -15197,7 +15204,7 @@
     </row>
     <row r="7" spans="2:156">
       <c r="B7" s="36" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="BC7" s="1">
         <v>8410</v>
@@ -15302,7 +15309,7 @@
     </row>
     <row r="8" spans="2:156">
       <c r="B8" s="36" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="BC8" s="1">
         <v>7877</v>
@@ -15512,7 +15519,7 @@
     </row>
     <row r="10" spans="2:156">
       <c r="B10" s="36" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="BC10" s="1">
         <v>661</v>
@@ -15794,7 +15801,7 @@
     </row>
     <row r="13" spans="2:156">
       <c r="B13" s="36" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="BG13" s="59">
         <f t="shared" ref="BG13:BO20" si="21">BG4/BC4-1</f>
@@ -15882,7 +15889,7 @@
     </row>
     <row r="14" spans="2:156">
       <c r="B14" s="36" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="BG14" s="59">
         <f t="shared" si="21"/>
@@ -15970,7 +15977,7 @@
     </row>
     <row r="15" spans="2:156">
       <c r="B15" s="36" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="BG15" s="59">
         <f t="shared" si="21"/>
@@ -16058,7 +16065,7 @@
     </row>
     <row r="16" spans="2:156">
       <c r="B16" s="36" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="BG16" s="59">
         <f t="shared" si="21"/>
@@ -16146,7 +16153,7 @@
     </row>
     <row r="17" spans="2:156">
       <c r="B17" s="36" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="BG17" s="59">
         <f t="shared" si="21"/>
@@ -16234,7 +16241,7 @@
     </row>
     <row r="18" spans="2:156">
       <c r="B18" s="36" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="BG18" s="59">
         <f t="shared" si="21"/>
@@ -16322,7 +16329,7 @@
     </row>
     <row r="19" spans="2:156">
       <c r="B19" s="36" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="BG19" s="59">
         <f t="shared" si="21"/>
@@ -16410,7 +16417,7 @@
     </row>
     <row r="20" spans="2:156" s="2" customFormat="1" ht="15">
       <c r="B20" s="33" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G20" s="60">
         <f t="shared" ref="G20:BE20" si="25">G44/C44-1</f>
@@ -16824,7 +16831,7 @@
     </row>
     <row r="22" spans="2:156">
       <c r="B22" s="36" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="BC22" s="59">
         <f t="shared" ref="BC22:BF22" si="28">BC4/BC11</f>
@@ -16901,7 +16908,7 @@
     </row>
     <row r="23" spans="2:156">
       <c r="B23" s="36" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="BC23" s="59">
         <f t="shared" ref="BC23:BF23" si="31">BC5/BC11</f>
@@ -16978,7 +16985,7 @@
     </row>
     <row r="24" spans="2:156">
       <c r="B24" s="36" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="BC24" s="59">
         <f t="shared" ref="BC24:BF24" si="34">BC6/BC11</f>
@@ -17055,7 +17062,7 @@
     </row>
     <row r="25" spans="2:156">
       <c r="B25" s="36" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="BC25" s="59">
         <f t="shared" ref="BC25:BF25" si="37">BC7/BC11</f>
@@ -17132,7 +17139,7 @@
     </row>
     <row r="26" spans="2:156">
       <c r="B26" s="36" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="BC26" s="59">
         <f t="shared" ref="BC26:BF26" si="40">BC8/BC11</f>
@@ -17209,7 +17216,7 @@
     </row>
     <row r="27" spans="2:156">
       <c r="B27" s="36" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="BC27" s="59">
         <f t="shared" ref="BC27:BF27" si="43">BC9/BC11</f>
@@ -17286,7 +17293,7 @@
     </row>
     <row r="28" spans="2:156">
       <c r="B28" s="36" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="BC28" s="59">
         <f t="shared" ref="BC28:BF28" si="46">BC10/BC11</f>
@@ -17363,7 +17370,7 @@
     </row>
     <row r="30" spans="2:156">
       <c r="B30" s="61" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="BC30" s="1">
         <v>69244</v>
@@ -17428,7 +17435,7 @@
     </row>
     <row r="31" spans="2:156">
       <c r="B31" s="61" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="BC31" s="1">
         <v>28759</v>
@@ -17493,7 +17500,7 @@
     </row>
     <row r="32" spans="2:156">
       <c r="B32" s="61" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="BC32" s="1">
         <v>18441</v>
@@ -17558,7 +17565,7 @@
     </row>
     <row r="33" spans="2:156" s="2" customFormat="1" ht="15">
       <c r="B33" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="BC33" s="2">
         <f t="shared" ref="BC33:BO33" si="49">SUM(BC30:BC32)</f>
@@ -17702,7 +17709,7 @@
     </row>
     <row r="35" spans="2:156">
       <c r="B35" s="61" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="BG35" s="59">
         <f t="shared" ref="BG35:BO38" si="50">BG30/BC30-1</f>
@@ -17759,7 +17766,7 @@
     </row>
     <row r="36" spans="2:156">
       <c r="B36" s="61" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="BG36" s="59">
         <f t="shared" si="50"/>
@@ -17816,7 +17823,7 @@
     </row>
     <row r="37" spans="2:156">
       <c r="B37" s="61" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="BG37" s="59">
         <f t="shared" si="50"/>
@@ -17873,7 +17880,7 @@
     </row>
     <row r="38" spans="2:156" s="2" customFormat="1" ht="15">
       <c r="B38" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="BG38" s="60">
         <f t="shared" si="50"/>
@@ -17997,7 +18004,7 @@
     </row>
     <row r="40" spans="2:156">
       <c r="B40" s="61" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="BC40" s="59">
         <f t="shared" ref="BC40:BO40" si="54">BC30/BC33</f>
@@ -18074,7 +18081,7 @@
     </row>
     <row r="41" spans="2:156">
       <c r="B41" s="61" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="BC41" s="59">
         <f t="shared" ref="BC41:BO41" si="56">BC31/BC33</f>
@@ -18151,7 +18158,7 @@
     </row>
     <row r="42" spans="2:156">
       <c r="B42" s="61" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="BC42" s="59">
         <f t="shared" ref="BC42:BO42" si="58">BC32/BC33</f>
@@ -18612,7 +18619,7 @@
     </row>
     <row r="45" spans="2:156">
       <c r="B45" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="AU45" s="1">
         <v>44257</v>
@@ -18908,7 +18915,7 @@
     </row>
     <row r="47" spans="2:156">
       <c r="B47" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="AU47" s="1">
         <v>11531</v>
@@ -19047,7 +19054,7 @@
     </row>
     <row r="48" spans="2:156">
       <c r="B48" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="AU48" s="1">
         <v>9325</v>
@@ -19186,7 +19193,7 @@
     </row>
     <row r="49" spans="2:156">
       <c r="B49" s="61" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="AU49" s="1">
         <v>4828</v>
@@ -19325,7 +19332,7 @@
     </row>
     <row r="50" spans="2:156">
       <c r="B50" s="61" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AU50" s="1">
         <v>1452</v>
@@ -19464,7 +19471,7 @@
     </row>
     <row r="51" spans="2:156">
       <c r="B51" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="AU51" s="1">
         <f t="shared" ref="AU51:BO51" si="75">SUM(AU49:AU50)</f>
@@ -19621,7 +19628,7 @@
     </row>
     <row r="52" spans="2:156">
       <c r="B52" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="AU52" s="1">
         <v>70</v>
@@ -19750,7 +19757,7 @@
     </row>
     <row r="53" spans="2:156">
       <c r="B53" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C53" s="1">
         <v>244</v>
@@ -20083,7 +20090,7 @@
     </row>
     <row r="54" spans="2:156">
       <c r="B54" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="AU54" s="1">
         <v>202</v>
@@ -20222,7 +20229,7 @@
     </row>
     <row r="55" spans="2:156">
       <c r="B55" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="AU55" s="1">
         <v>-402</v>
@@ -20351,7 +20358,7 @@
     </row>
     <row r="56" spans="2:156">
       <c r="B56" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="AU56" s="1">
         <v>-406</v>
@@ -20480,7 +20487,7 @@
     </row>
     <row r="57" spans="2:156">
       <c r="B57" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="AU57" s="1">
         <f t="shared" ref="AU57:BO57" si="81">AU53+SUM(AU54:AU56)</f>
@@ -20637,7 +20644,7 @@
     </row>
     <row r="58" spans="2:156">
       <c r="B58" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="AU58" s="1">
         <v>744</v>
@@ -20776,7 +20783,7 @@
     </row>
     <row r="59" spans="2:156">
       <c r="B59" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="AU59" s="1">
         <v>104</v>
@@ -20905,7 +20912,7 @@
     </row>
     <row r="60" spans="2:156" s="2" customFormat="1" ht="15">
       <c r="B60" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C60" s="2">
         <v>177</v>
@@ -21241,203 +21248,203 @@
       </c>
       <c r="CZ60" s="76">
         <f>CY60*(1+$CY$77)</f>
-        <v>585676.05160004226</v>
+        <v>587118.60345127399</v>
       </c>
       <c r="DA60" s="76">
         <f t="shared" ref="DA60:EW60" si="88">CZ60*(1+$CY$77)</f>
-        <v>594461.19237404282</v>
+        <v>597393.17901167134</v>
       </c>
       <c r="DB60" s="76">
         <f t="shared" si="88"/>
-        <v>603378.11025965342</v>
+        <v>607847.55964437558</v>
       </c>
       <c r="DC60" s="76">
         <f t="shared" si="88"/>
-        <v>612428.78191354813</v>
+        <v>618484.89193815214</v>
       </c>
       <c r="DD60" s="76">
         <f t="shared" si="88"/>
-        <v>621615.21364225133</v>
+        <v>629308.3775470698</v>
       </c>
       <c r="DE60" s="76">
         <f t="shared" si="88"/>
-        <v>630939.44184688502</v>
+        <v>640321.27415414352</v>
       </c>
       <c r="DF60" s="76">
         <f t="shared" si="88"/>
-        <v>640403.53347458818</v>
+        <v>651526.89645184111</v>
       </c>
       <c r="DG60" s="76">
         <f t="shared" si="88"/>
-        <v>650009.5864767069</v>
+        <v>662928.61713974841</v>
       </c>
       <c r="DH60" s="76">
         <f t="shared" si="88"/>
-        <v>659759.73027385748</v>
+        <v>674529.86793969409</v>
       </c>
       <c r="DI60" s="76">
         <f t="shared" si="88"/>
-        <v>669656.12622796523</v>
+        <v>686334.14062863879</v>
       </c>
       <c r="DJ60" s="76">
         <f t="shared" si="88"/>
-        <v>679700.96812138462</v>
+        <v>698344.98808964004</v>
       </c>
       <c r="DK60" s="76">
         <f t="shared" si="88"/>
-        <v>689896.48264320532</v>
+        <v>710566.02538120875</v>
       </c>
       <c r="DL60" s="76">
         <f t="shared" si="88"/>
-        <v>700244.92988285329</v>
+        <v>723000.93082537991</v>
       </c>
       <c r="DM60" s="76">
         <f t="shared" si="88"/>
-        <v>710748.60383109597</v>
+        <v>735653.44711482408</v>
       </c>
       <c r="DN60" s="76">
         <f t="shared" si="88"/>
-        <v>721409.83288856235</v>
+        <v>748527.3824393336</v>
       </c>
       <c r="DO60" s="76">
         <f t="shared" si="88"/>
-        <v>732230.98038189067</v>
+        <v>761626.61163202196</v>
       </c>
       <c r="DP60" s="76">
         <f t="shared" si="88"/>
-        <v>743214.44508761901</v>
+        <v>774955.07733558235</v>
       </c>
       <c r="DQ60" s="76">
         <f t="shared" si="88"/>
-        <v>754362.66176393325</v>
+        <v>788516.79118895507</v>
       </c>
       <c r="DR60" s="76">
         <f t="shared" si="88"/>
-        <v>765678.10169039213</v>
+        <v>802315.83503476181</v>
       </c>
       <c r="DS60" s="76">
         <f t="shared" si="88"/>
-        <v>777163.2732157479</v>
+        <v>816356.36214787024</v>
       </c>
       <c r="DT60" s="76">
         <f t="shared" si="88"/>
-        <v>788820.72231398406</v>
+        <v>830642.59848545806</v>
       </c>
       <c r="DU60" s="76">
         <f t="shared" si="88"/>
-        <v>800653.03314869374</v>
+        <v>845178.84395895363</v>
       </c>
       <c r="DV60" s="76">
         <f t="shared" si="88"/>
-        <v>812662.82864592411</v>
+        <v>859969.47372823535</v>
       </c>
       <c r="DW60" s="76">
         <f t="shared" si="88"/>
-        <v>824852.77107561287</v>
+        <v>875018.93951847951</v>
       </c>
       <c r="DX60" s="76">
         <f t="shared" si="88"/>
-        <v>837225.56264174695</v>
+        <v>890331.77096005296</v>
       </c>
       <c r="DY60" s="76">
         <f t="shared" si="88"/>
-        <v>849783.94608137303</v>
+        <v>905912.57695185393</v>
       </c>
       <c r="DZ60" s="76">
         <f t="shared" si="88"/>
-        <v>862530.70527259354</v>
+        <v>921766.04704851145</v>
       </c>
       <c r="EA60" s="76">
         <f t="shared" si="88"/>
-        <v>875468.66585168231</v>
+        <v>937896.95287186047</v>
       </c>
       <c r="EB60" s="76">
         <f t="shared" si="88"/>
-        <v>888600.69583945745</v>
+        <v>954310.14954711811</v>
       </c>
       <c r="EC60" s="76">
         <f t="shared" si="88"/>
-        <v>901929.70627704926</v>
+        <v>971010.5771641928</v>
       </c>
       <c r="ED60" s="76">
         <f t="shared" si="88"/>
-        <v>915458.65187120496</v>
+        <v>988003.26226456626</v>
       </c>
       <c r="EE60" s="76">
         <f t="shared" si="88"/>
-        <v>929190.53164927289</v>
+        <v>1005293.3193541962</v>
       </c>
       <c r="EF60" s="76">
         <f t="shared" si="88"/>
-        <v>943128.38962401194</v>
+        <v>1022885.9524428947</v>
       </c>
       <c r="EG60" s="76">
         <f t="shared" si="88"/>
-        <v>957275.31546837208</v>
+        <v>1040786.4566106454</v>
       </c>
       <c r="EH60" s="76">
         <f t="shared" si="88"/>
-        <v>971634.44520039752</v>
+        <v>1059000.2196013317</v>
       </c>
       <c r="EI60" s="76">
         <f t="shared" si="88"/>
-        <v>986208.96187840344</v>
+        <v>1077532.7234443552</v>
       </c>
       <c r="EJ60" s="76">
         <f t="shared" si="88"/>
-        <v>1001002.0963065794</v>
+        <v>1096389.5461046314</v>
       </c>
       <c r="EK60" s="76">
         <f t="shared" si="88"/>
-        <v>1016017.127751178</v>
+        <v>1115576.3631614626</v>
       </c>
       <c r="EL60" s="76">
         <f t="shared" si="88"/>
-        <v>1031257.3846674456</v>
+        <v>1135098.9495167884</v>
       </c>
       <c r="EM60" s="76">
         <f t="shared" si="88"/>
-        <v>1046726.2454374571</v>
+        <v>1154963.1811333322</v>
       </c>
       <c r="EN60" s="76">
         <f t="shared" si="88"/>
-        <v>1062427.1391190188</v>
+        <v>1175175.0368031657</v>
       </c>
       <c r="EO60" s="76">
         <f t="shared" si="88"/>
-        <v>1078363.546205804</v>
+        <v>1195740.5999472211</v>
       </c>
       <c r="EP60" s="76">
         <f t="shared" si="88"/>
-        <v>1094538.9993988909</v>
+        <v>1216666.0604462975</v>
       </c>
       <c r="EQ60" s="76">
         <f t="shared" si="88"/>
-        <v>1110957.0843898742</v>
+        <v>1237957.7165041077</v>
       </c>
       <c r="ER60" s="76">
         <f t="shared" si="88"/>
-        <v>1127621.4406557223</v>
+        <v>1259621.9765429297</v>
       </c>
       <c r="ES60" s="76">
         <f t="shared" si="88"/>
-        <v>1144535.7622655581</v>
+        <v>1281665.3611324311</v>
       </c>
       <c r="ET60" s="76">
         <f t="shared" si="88"/>
-        <v>1161703.7986995415</v>
+        <v>1304094.5049522487</v>
       </c>
       <c r="EU60" s="76">
         <f t="shared" si="88"/>
-        <v>1179129.3556800345</v>
+        <v>1326916.1587889132</v>
       </c>
       <c r="EV60" s="76">
         <f t="shared" si="88"/>
-        <v>1196816.2960152349</v>
+        <v>1350137.1915677192</v>
       </c>
       <c r="EW60" s="76">
         <f t="shared" si="88"/>
-        <v>1214768.5404554633</v>
+        <v>1373764.5924201545</v>
       </c>
       <c r="EX60" s="66"/>
       <c r="EY60" s="66"/>
@@ -21720,7 +21727,7 @@
     </row>
     <row r="62" spans="2:156">
       <c r="B62" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C62" s="39">
         <f t="shared" ref="C62" si="89">C60/C61</f>
@@ -22259,7 +22266,7 @@
     </row>
     <row r="65" spans="2:103">
       <c r="B65" s="37" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
@@ -22663,7 +22670,7 @@
     </row>
     <row r="67" spans="2:103">
       <c r="B67" s="61" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
@@ -22865,7 +22872,7 @@
     </row>
     <row r="68" spans="2:103">
       <c r="B68" s="61" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -24443,7 +24450,7 @@
     </row>
     <row r="76" spans="2:103">
       <c r="B76" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="AX76" s="1">
         <v>23795</v>
@@ -24526,16 +24533,16 @@
         <v>34214</v>
       </c>
       <c r="CQ76" s="67" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="CT76" s="67" t="s">
+        <v>1925</v>
+      </c>
+      <c r="CV76" s="68" t="s">
         <v>1926</v>
       </c>
-      <c r="CV76" s="68" t="s">
+      <c r="CX76" s="69" t="s">
         <v>1927</v>
-      </c>
-      <c r="CX76" s="69" t="s">
-        <v>1928</v>
       </c>
       <c r="CY76" s="70">
         <v>0.1875</v>
@@ -24543,7 +24550,7 @@
     </row>
     <row r="77" spans="2:103" ht="14.25" customHeight="1">
       <c r="B77" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="AX77" s="1">
         <v>24542</v>
@@ -24635,18 +24642,18 @@
         <v>2024</v>
       </c>
       <c r="CV77" s="68" t="s">
+        <v>1928</v>
+      </c>
+      <c r="CX77" s="69" t="s">
         <v>1929</v>
       </c>
-      <c r="CX77" s="69" t="s">
-        <v>1930</v>
-      </c>
       <c r="CY77" s="71">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="2:103" ht="14.25" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AX78" s="1">
         <v>113114</v>
@@ -24746,7 +24753,7 @@
         <v>343289.5</v>
       </c>
       <c r="CX78" s="69" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="CY78" s="71">
         <v>3.9899999999999998E-2</v>
@@ -24754,7 +24761,7 @@
     </row>
     <row r="79" spans="2:103" ht="14.25" customHeight="1">
       <c r="B79" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="AX79" s="1">
         <v>37553</v>
@@ -24842,7 +24849,7 @@
         <v>0.18834647072730154</v>
       </c>
       <c r="CX79" s="69" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="CY79" s="71">
         <f>10.25%-CY78</f>
@@ -24851,7 +24858,7 @@
     </row>
     <row r="80" spans="2:103" ht="14.25" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="AX80" s="1">
         <v>15017</v>
@@ -24934,7 +24941,7 @@
         <v>23074</v>
       </c>
       <c r="CX80" s="69" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="CY80" s="65">
         <v>1.31</v>
@@ -24942,7 +24949,7 @@
     </row>
     <row r="81" spans="2:156" ht="14.25" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="AX81" s="1">
         <v>22778</v>
@@ -25025,7 +25032,7 @@
         <v>82147</v>
       </c>
       <c r="CX81" s="69" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="CY81" s="71">
         <f>+CY78+(CY79*CY80)</f>
@@ -25034,7 +25041,7 @@
     </row>
     <row r="82" spans="2:156" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="B82" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="AX82" s="2">
         <f t="shared" ref="AX82:BP82" si="171">SUM(AX74:AX81)</f>
@@ -25206,16 +25213,16 @@
     </row>
     <row r="83" spans="2:156" ht="14.25" customHeight="1">
       <c r="CX83" s="69" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="CY83" s="72">
         <f>NPV(CY81,CP60:EX60)</f>
-        <v>2998131.554146444</v>
+        <v>3042163.7987868013</v>
       </c>
     </row>
     <row r="84" spans="2:156" ht="14.25" customHeight="1">
       <c r="B84" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="AX84" s="1">
         <v>72539</v>
@@ -25302,12 +25309,12 @@
       </c>
       <c r="CY84" s="72">
         <f>Main!C4</f>
-        <v>10674</v>
+        <v>10690</v>
       </c>
     </row>
     <row r="85" spans="2:156" ht="14.25" customHeight="1">
       <c r="B85" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="AX85" s="1">
         <v>44138</v>
@@ -25390,16 +25397,16 @@
         <v>66965</v>
       </c>
       <c r="CX85" s="69" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="CY85" s="74">
         <f>CY83/CY84</f>
-        <v>280.88172701390704</v>
+        <v>284.58033664984112</v>
       </c>
     </row>
     <row r="86" spans="2:156" ht="14.25" customHeight="1">
       <c r="B86" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="AX86" s="1">
         <v>9708</v>
@@ -25482,16 +25489,16 @@
         <v>18103</v>
       </c>
       <c r="CX86" s="69" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="CY86" s="74">
         <f>Main!C3</f>
-        <v>244.3</v>
+        <v>229.71</v>
       </c>
     </row>
     <row r="87" spans="2:156" ht="14.25" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="AX87" s="1">
         <v>52573</v>
@@ -25581,11 +25588,11 @@
       <c r="CV87" s="66"/>
       <c r="CW87" s="66"/>
       <c r="CX87" s="69" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="CY87" s="71">
         <f>CY85/CY86-1</f>
-        <v>0.14974100292225545</v>
+        <v>0.23886786230395329</v>
       </c>
       <c r="CZ87" s="67" t="str">
         <f>IF(CY87&gt;0,"Upside","Downside")</f>
@@ -25594,7 +25601,7 @@
     </row>
     <row r="88" spans="2:156" ht="14.25" customHeight="1">
       <c r="B88" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AX88" s="1">
         <v>31816</v>
@@ -25676,15 +25683,15 @@
         <f t="shared" si="177"/>
         <v>52623</v>
       </c>
-      <c r="CX88" s="81" t="str" cm="1">
+      <c r="CX88" s="79" t="str" cm="1">
         <f t="array" ref="CX88">_xlfn.IFS(CY87&gt;=25%,"Strong Buy",CY87&gt;=10.00001%,"Buy",AND(CY87&lt;=10%,CY87&gt;=-4.9999%),"Hold",AND(CY87&lt;=-5%,CY87&gt;=-14.999999%),"Sell",CY87&lt;=-15%,"Strong Sell")</f>
         <v>Buy</v>
       </c>
-      <c r="CY88" s="81"/>
+      <c r="CY88" s="79"/>
     </row>
     <row r="89" spans="2:156" ht="14.25" customHeight="1">
       <c r="B89" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="AX89" s="1">
         <v>17017</v>
@@ -25769,7 +25776,7 @@
     </row>
     <row r="90" spans="2:156" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="B90" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="AX90" s="2">
         <f t="shared" ref="AX90:BM90" si="178">SUM(AX84:AX89)</f>
@@ -25941,7 +25948,7 @@
     </row>
     <row r="91" spans="2:156" ht="14.25" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="AX91" s="1">
         <v>93404</v>
@@ -26026,7 +26033,7 @@
     </row>
     <row r="92" spans="2:156" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="B92" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="AX92" s="2">
         <f t="shared" ref="AX92:BM92" si="181">AX90+AX91</f>
